--- a/dataBases/dataBase-videoCard.xlsx
+++ b/dataBases/dataBase-videoCard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f7782c7c2999047/Documentos/Facul/Away/Repositórios/Combinação de Hardware/dataBases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F7644D96D7DF81AE31612D2BF87B3F88E2D58C66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87046078-3A31-4C33-BB31-17B36E6D510C}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_F7644D96D7DF81AE31612D2BF87B3F88E2D58C66" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BA4DFB-9E09-4129-AAFD-17C1FA31170B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Game</t>
   </si>
@@ -91,85 +91,31 @@
     <t>46.4</t>
   </si>
   <si>
-    <t>RTX 3051</t>
-  </si>
-  <si>
-    <t>184.6</t>
-  </si>
-  <si>
-    <t>114.9</t>
-  </si>
-  <si>
-    <t>79.10</t>
-  </si>
-  <si>
-    <t>159.10</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>113.6</t>
-  </si>
-  <si>
-    <t>68.9</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>RTX 3052</t>
-  </si>
-  <si>
-    <t>184.7</t>
-  </si>
-  <si>
-    <t>114.10</t>
-  </si>
-  <si>
-    <t>79.11</t>
-  </si>
-  <si>
-    <t>159.11</t>
-  </si>
-  <si>
-    <t>60.7</t>
-  </si>
-  <si>
-    <t>113.7</t>
-  </si>
-  <si>
-    <t>68.10</t>
-  </si>
-  <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>RTX 3053</t>
-  </si>
-  <si>
-    <t>184.8</t>
-  </si>
-  <si>
-    <t>114.11</t>
-  </si>
-  <si>
-    <t>79.12</t>
-  </si>
-  <si>
-    <t>159.12</t>
-  </si>
-  <si>
-    <t>60.8</t>
-  </si>
-  <si>
-    <t>113.8</t>
-  </si>
-  <si>
-    <t>68.11</t>
-  </si>
-  <si>
-    <t>46.7</t>
+    <t>Fortnite</t>
+  </si>
+  <si>
+    <t>318.6</t>
+  </si>
+  <si>
+    <t>206.8</t>
+  </si>
+  <si>
+    <t>150.9</t>
+  </si>
+  <si>
+    <t>234.4</t>
+  </si>
+  <si>
+    <t>148.2</t>
+  </si>
+  <si>
+    <t>105.1</t>
+  </si>
+  <si>
+    <t>91.5</t>
+  </si>
+  <si>
+    <t>62.7</t>
   </si>
 </sst>
 </file>
@@ -488,6 +434,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,10 +728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,10 +960,10 @@
     </row>
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>14</v>
@@ -1027,153 +977,41 @@
       <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="15">
-        <v>46</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="J6" s="19">
+        <v>95</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="16">
-        <v>99</v>
-      </c>
-      <c r="M6" s="14" t="s">
+      <c r="L6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="15">
-        <v>38</v>
-      </c>
-      <c r="O6" s="13" t="s">
+      <c r="M6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="N6" s="19">
+        <v>62</v>
+      </c>
+      <c r="O6" s="18">
+        <v>149</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="R6" s="19">
         <v>34</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="15">
-        <v>47</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="16">
-        <v>100</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="15">
-        <v>39</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="15">
-        <v>48</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="16">
-        <v>101</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="15">
-        <v>40</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="15">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
